--- a/IG_Retrived.xlsx
+++ b/IG_Retrived.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Page Name</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Posts</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t xml:space="preserve">     Theloverspoint69</t>
   </si>
   <si>
@@ -64,7 +67,7 @@
     <t>508</t>
   </si>
   <si>
-    <t>6,308</t>
+    <t>6,304</t>
   </si>
   <si>
     <t>94</t>
@@ -76,25 +79,53 @@
     <t>31</t>
   </si>
   <si>
-    <t>289</t>
+    <t>288</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>1,323</t>
-  </si>
-  <si>
-    <t>4,097</t>
-  </si>
-  <si>
-    <t>1,995</t>
-  </si>
-  <si>
-    <t>7,841</t>
-  </si>
-  <si>
-    <t>335</t>
+    <t>1,360</t>
+  </si>
+  <si>
+    <t>4,115</t>
+  </si>
+  <si>
+    <t>1,998</t>
+  </si>
+  <si>
+    <t>7,847</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>🔸️Official account of naughtyworld 
+🔸️No.1 #meme #trolls &amp;amp; #sarcasm
+🔶️Founder @ankurraghav_ 🤝 🇮🇳
+🔶️Dm for credit/removal 📝</t>
+  </si>
+  <si>
+    <t>| Student&amp;#x27;s Life |
+All About Student&amp;#x27;s
+- Life
+- Facts 
+- Trolls
+If You&amp;#x27;re Tagged Follow us↗️
+FOR BIZ ENQUIRIES 📧 Studentsfacts.in@gmail.com</t>
+  </si>
+  <si>
+    <t>ADMIN @ajay24899
+Keep smiling always And be happy 
+(No Adult content) 
+Always smile because you really look very pretty when u smile</t>
+  </si>
+  <si>
+    <t>Trolls || Memes || Gags ®  
+Page by a Thaparian 😇
+Owners : @__mukki @_rohitgoyal
+Follow 👉 @kyunbc
+Dm for Credits or Removal 📝</t>
   </si>
 </sst>
 </file>
@@ -452,13 +483,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,145 +502,178 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1100000</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>6900000</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2000000</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>24400</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>3100000</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>28100</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>3000000</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1900000</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1900000</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
